--- a/v1.0/input/pnai70x/PNAI70X_cpu_interrupt_v1.0_2022_0315.xlsx
+++ b/v1.0/input/pnai70x/PNAI70X_cpu_interrupt_v1.0_2022_0315.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E44FAB62-779D-4137-9367-FF5CF31D4E6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{869A4341-BC67-445E-8A16-75C1B97DFE06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5670" yWindow="2010" windowWidth="17600" windowHeight="13390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="history" sheetId="2" r:id="rId1"/>
@@ -2474,16 +2474,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="11.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -2871,26 +2871,26 @@
   </sheetPr>
   <dimension ref="A1:I514"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G35" sqref="G35"/>
+      <selection pane="bottomLeft" activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="5.4140625" style="47" customWidth="1"/>
-    <col min="2" max="2" width="5.9140625" style="47" customWidth="1"/>
+    <col min="1" max="1" width="5.375" style="47" customWidth="1"/>
+    <col min="2" max="2" width="5.875" style="47" customWidth="1"/>
     <col min="3" max="3" width="36" style="47" customWidth="1"/>
     <col min="4" max="4" width="39" style="77" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="52" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.625" style="52" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.25" style="47" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25" style="47" customWidth="1"/>
-    <col min="8" max="8" width="22.33203125" style="47" customWidth="1"/>
-    <col min="9" max="9" width="20.83203125" style="47" customWidth="1"/>
+    <col min="8" max="8" width="22.375" style="47" customWidth="1"/>
+    <col min="9" max="9" width="20.875" style="47" customWidth="1"/>
     <col min="10" max="16384" width="9" style="47"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="53" customFormat="1" ht="34" hidden="1">
+    <row r="1" spans="1:9" s="53" customFormat="1" ht="33" hidden="1">
       <c r="A1" s="54" t="s">
         <v>384</v>
       </c>
@@ -2919,7 +2919,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="34">
+    <row r="2" spans="1:9" ht="33">
       <c r="A2" s="46" t="s">
         <v>378</v>
       </c>
